--- a/MLB New York Mets.xlsx
+++ b/MLB New York Mets.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="79">
-  <si>
-    <t>New York Mets yearly win–loss records, with league/division standings, playoff results, and award winners</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
   <si>
     <t>MLB season</t>
   </si>
@@ -578,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -596,350 +593,380 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>1962</v>
+      </c>
+      <c r="B2">
+        <v>1962</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B3">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+        <v>0.315</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B4">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>0.315</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="I4">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B5">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>0.32700000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B6">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G6">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H6">
-        <v>0.309</v>
-      </c>
-      <c r="I6">
-        <v>47</v>
+        <v>0.41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B7">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H7">
-        <v>0.41</v>
+        <v>0.377</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B8">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>89</v>
+      </c>
+      <c r="H8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1969</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
         <v>61</v>
       </c>
-      <c r="G8">
-        <v>101</v>
-      </c>
-      <c r="H8">
-        <v>0.377</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1968</v>
-      </c>
-      <c r="B9">
-        <v>1968</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>73</v>
-      </c>
-      <c r="G9">
-        <v>89</v>
-      </c>
-      <c r="H9">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="I9">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1969</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>62</v>
-      </c>
-      <c r="H10">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
       <c r="K11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1970</v>
+      </c>
+      <c r="B12">
+        <v>1970</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B13">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
       </c>
       <c r="F13">
         <v>83</v>
@@ -951,475 +978,475 @@
         <v>0.51200000000000001</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1971</v>
+      <c r="A14" t="s">
+        <v>63</v>
       </c>
       <c r="B14">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
       </c>
       <c r="F14">
         <v>83</v>
       </c>
       <c r="G14">
+        <v>73</v>
+      </c>
+      <c r="H14">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1973</v>
+      </c>
+      <c r="B15">
+        <v>1973</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>82</v>
+      </c>
+      <c r="G15">
         <v>79</v>
       </c>
-      <c r="H14">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15">
-        <v>1972</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>83</v>
-      </c>
-      <c r="G15">
-        <v>73</v>
-      </c>
       <c r="H15">
-        <v>0.53200000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1973</v>
-      </c>
-      <c r="B16">
-        <v>1973</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>82</v>
-      </c>
-      <c r="G16">
-        <v>79</v>
-      </c>
-      <c r="H16">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1974</v>
+      </c>
+      <c r="B17">
+        <v>1974</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>91</v>
+      </c>
+      <c r="H17">
+        <v>0.438</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B18">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18">
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I18" t="s">
         <v>25</v>
       </c>
-      <c r="F18">
-        <v>71</v>
-      </c>
-      <c r="G18">
-        <v>91</v>
-      </c>
-      <c r="H18">
-        <v>0.438</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
       <c r="J18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1975</v>
-      </c>
-      <c r="B19">
-        <v>1975</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1976</v>
+      </c>
+      <c r="B20">
+        <v>1976</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>82</v>
-      </c>
-      <c r="G19">
-        <v>80</v>
-      </c>
-      <c r="H19">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
+      <c r="H20">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B21">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G21">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H21">
-        <v>0.53100000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B22">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22">
-        <v>0.39500000000000002</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="I22">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B23">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G23">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H23">
-        <v>0.40699999999999997</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="I23">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B24">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>67</v>
+      </c>
+      <c r="G24">
+        <v>95</v>
+      </c>
+      <c r="H24">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I24">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>1981</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+      <c r="H25">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="I25" t="s">
         <v>27</v>
       </c>
-      <c r="F24">
-        <v>63</v>
-      </c>
-      <c r="G24">
-        <v>99</v>
-      </c>
-      <c r="H24">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="I24">
-        <v>35</v>
-      </c>
-      <c r="J24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1980</v>
-      </c>
-      <c r="B25">
-        <v>1980</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25">
-        <v>67</v>
-      </c>
-      <c r="G25">
-        <v>95</v>
-      </c>
-      <c r="H25">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>67</v>
+      <c r="A26">
+        <v>1982</v>
       </c>
       <c r="B26">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="H26">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I26">
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B27">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G27">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H27">
-        <v>0.40100000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="I27">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B28">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G28">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>0.42</v>
-      </c>
-      <c r="I28">
-        <v>22</v>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="s">
         <v>68</v>
@@ -1427,357 +1454,357 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B29">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G29">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H29">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I29" t="s">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
         <v>30</v>
       </c>
-      <c r="J29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" t="s">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1986</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>108</v>
+      </c>
+      <c r="G30">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>1985</v>
-      </c>
-      <c r="B30">
-        <v>1985</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30">
-        <v>98</v>
-      </c>
-      <c r="G30">
-        <v>64</v>
-      </c>
-      <c r="H30">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="I30">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1987</v>
+      </c>
+      <c r="B32">
+        <v>1987</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <v>92</v>
+      </c>
+      <c r="G32">
+        <v>70</v>
+      </c>
+      <c r="H32">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="J30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>1986</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>108</v>
-      </c>
-      <c r="G31">
-        <v>54</v>
-      </c>
-      <c r="H31">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="J32" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B33">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
+        <v>0.625</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B34">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G34">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H34">
-        <v>0.625</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B35">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G35">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H35">
-        <v>0.53700000000000003</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B36">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F36">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G36">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H36">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B37">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G37">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H37">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="I37" t="s">
-        <v>35</v>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B38">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <v>59</v>
+      </c>
+      <c r="G38">
+        <v>103</v>
+      </c>
+      <c r="H38">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>1994</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="E38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38">
-        <v>72</v>
-      </c>
-      <c r="G38">
-        <v>90</v>
-      </c>
-      <c r="H38">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="I38">
-        <v>24</v>
-      </c>
-      <c r="J38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>1993</v>
-      </c>
-      <c r="B39">
-        <v>1993</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
       <c r="F39">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G39">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="H39">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="I39">
-        <v>38</v>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -1785,121 +1812,121 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G40">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H40">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="I40">
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>73</v>
+      <c r="A41">
+        <v>1996</v>
       </c>
       <c r="B41">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F41">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G41">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H41">
-        <v>0.47899999999999998</v>
+        <v>0.438</v>
       </c>
       <c r="I41">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B42">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="E42" t="s">
-        <v>37</v>
-      </c>
       <c r="F42">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G42">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H42">
-        <v>0.438</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B43">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F43">
         <v>88</v>
@@ -1911,123 +1938,93 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I43">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B44">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>97</v>
+      </c>
+      <c r="G44">
+        <v>66</v>
+      </c>
+      <c r="H44">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="I44" t="s">
         <v>29</v>
       </c>
-      <c r="F44">
-        <v>88</v>
-      </c>
-      <c r="G44">
-        <v>74</v>
-      </c>
-      <c r="H44">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="I44">
-        <v>18</v>
-      </c>
       <c r="J44" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>1999</v>
-      </c>
-      <c r="B45">
-        <v>1999</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45">
-        <v>97</v>
-      </c>
-      <c r="G45">
-        <v>66</v>
-      </c>
-      <c r="H45">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="I45" t="s">
-        <v>30</v>
-      </c>
       <c r="J45" t="s">
         <v>39</v>
       </c>
-      <c r="K45" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>2000</v>
+      </c>
+      <c r="B46">
+        <v>2000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>94</v>
+      </c>
+      <c r="G46">
+        <v>68</v>
+      </c>
+      <c r="H46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>2000</v>
-      </c>
-      <c r="B47">
-        <v>2000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47">
-        <v>94</v>
-      </c>
-      <c r="G47">
-        <v>68</v>
-      </c>
-      <c r="H47">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
         <v>42</v>
-      </c>
-      <c r="K47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -2036,415 +2033,445 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>2001</v>
+      </c>
+      <c r="B49">
+        <v>2001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>82</v>
+      </c>
+      <c r="G49">
+        <v>80</v>
+      </c>
+      <c r="H49">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="K49" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B50">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G50">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H50">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I50">
-        <v>6</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B51">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G51">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H51">
-        <v>0.46600000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="I51" t="s">
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B52">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>71</v>
+      </c>
+      <c r="G52">
+        <v>91</v>
+      </c>
+      <c r="H52">
+        <v>0.438</v>
+      </c>
+      <c r="I52">
         <v>25</v>
       </c>
-      <c r="F52">
-        <v>66</v>
-      </c>
-      <c r="G52">
-        <v>95</v>
-      </c>
-      <c r="H52">
-        <v>0.41</v>
-      </c>
-      <c r="I52" t="s">
-        <v>46</v>
-      </c>
       <c r="J52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B53">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
       <c r="F53">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G53">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H53">
-        <v>0.438</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="I53">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B54">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F54">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G54">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H54">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="I54">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="I54" t="s">
         <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>2006</v>
-      </c>
-      <c r="B55">
-        <v>2006</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55">
-        <v>97</v>
-      </c>
-      <c r="G55">
-        <v>65</v>
-      </c>
-      <c r="H55">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>2007</v>
+      </c>
+      <c r="B56">
+        <v>2007</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56">
+        <v>88</v>
+      </c>
+      <c r="G56">
+        <v>74</v>
+      </c>
+      <c r="H56">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="K56" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B57">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G57">
+        <v>73</v>
+      </c>
+      <c r="H57">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" t="s">
         <v>74</v>
-      </c>
-      <c r="H57">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B58">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F58">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H58">
-        <v>0.54900000000000004</v>
+        <v>0.432</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K58" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B59">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>79</v>
+      </c>
+      <c r="G59">
+        <v>83</v>
+      </c>
+      <c r="H59">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I59">
         <v>18</v>
       </c>
-      <c r="E59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59">
-        <v>70</v>
-      </c>
-      <c r="G59">
-        <v>92</v>
-      </c>
-      <c r="H59">
-        <v>0.432</v>
-      </c>
-      <c r="I59">
-        <v>23</v>
-      </c>
       <c r="J59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B60">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G60">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H60">
-        <v>0.48799999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B61">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G61">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H61">
-        <v>0.47499999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="I61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K61" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B62">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
         <v>18</v>
-      </c>
-      <c r="E62" t="s">
-        <v>37</v>
       </c>
       <c r="F62">
         <v>74</v>
@@ -2456,118 +2483,88 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="I62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K62" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B63">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F63">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G63">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H63">
-        <v>0.45700000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="I63">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K63" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B64">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64">
+        <v>90</v>
+      </c>
+      <c r="G64">
+        <v>72</v>
+      </c>
+      <c r="H64">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" t="s">
         <v>49</v>
-      </c>
-      <c r="F64">
-        <v>79</v>
-      </c>
-      <c r="G64">
-        <v>83</v>
-      </c>
-      <c r="H64">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="I64">
-        <v>17</v>
-      </c>
-      <c r="J64" t="s">
-        <v>8</v>
       </c>
       <c r="K64" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>2015</v>
-      </c>
-      <c r="B65">
-        <v>2015</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>90</v>
-      </c>
-      <c r="G65">
-        <v>72</v>
-      </c>
-      <c r="H65">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
       <c r="J65" t="s">
         <v>50</v>
-      </c>
-      <c r="K65" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
@@ -2576,78 +2573,73 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>2016</v>
+      </c>
+      <c r="B67">
+        <v>2016</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>87</v>
+      </c>
+      <c r="G67">
+        <v>75</v>
+      </c>
+      <c r="H67">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
       <c r="J67" t="s">
         <v>52</v>
       </c>
+      <c r="K67" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B68">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F68">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G68">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H68">
-        <v>0.53700000000000003</v>
+        <v>0.432</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="K68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>2017</v>
-      </c>
-      <c r="B69">
-        <v>2017</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69">
-        <v>70</v>
-      </c>
-      <c r="G69">
-        <v>92</v>
-      </c>
-      <c r="H69">
-        <v>0.432</v>
-      </c>
-      <c r="I69">
-        <v>27</v>
-      </c>
-      <c r="J69" t="s">
-        <v>8</v>
-      </c>
-      <c r="K69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
